--- a/ДЗ.5.xlsx
+++ b/ДЗ.5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -562,12 +562,19 @@
   <si>
     <t>Функция "найти друзей"</t>
   </si>
+  <si>
+    <t xml:space="preserve">Пройден
+</t>
+  </si>
+  <si>
+    <t>Провален</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +729,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -869,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -980,41 +996,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1143,7 +1163,9 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="B4"/>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1441,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1454,7 +1476,7 @@
     <col min="5" max="5" width="49.28515625" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
@@ -1569,12 +1591,16 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>43908</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="9"/>
       <c r="O3" s="4"/>
@@ -1658,29 +1684,29 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="11"/>
       <c r="L6" s="45" t="s">
         <v>14</v>
@@ -1704,19 +1730,19 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="48"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="11"/>
       <c r="L7" s="45"/>
       <c r="M7" s="4"/>
@@ -1756,7 +1782,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="53" t="s">
+        <v>133</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="18"/>
       <c r="O8" s="4"/>
@@ -1792,7 +1820,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="15"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="53" t="s">
+        <v>133</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="18"/>
       <c r="O9" s="4"/>
@@ -1828,7 +1858,9 @@
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="54" t="s">
+        <v>134</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="18"/>
       <c r="O10" s="4"/>
@@ -3664,6 +3696,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="T6:T7"/>
@@ -3671,24 +3709,20 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L45 R12:R45 P12:P45 T12:T45 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N45">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N10 R12:R45 P12:P45 T12:T45 T8:T10 P8:P10 R8:R10 N12:N45">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="L1:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
